--- a/StructureDefinition-ext-R5-VisionPrescription.lensSpecification.xlsx
+++ b/StructureDefinition-ext-R5-VisionPrescription.lensSpecification.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2868" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2868" uniqueCount="292">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -410,15 +410,6 @@
 </t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A coded concept describing the vision products.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-vision-product-for-R4</t>
-  </si>
-  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -464,15 +455,6 @@
 </t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>A coded concept listing the eye codes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-vision-eye-codes-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:sphere</t>
   </si>
   <si>
@@ -677,12 +659,6 @@
     <t>Extension.extension:prism.extension:base.value[x]</t>
   </si>
   <si>
-    <t>A coded concept listing the base codes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-vision-base-codes-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:prism.url</t>
   </si>
   <si>
@@ -857,7 +833,7 @@
     <t>Extension.extension:duration.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
@@ -1305,8 +1281,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="39.25" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.66015625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2222,43 +2198,43 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="Y9" t="s" s="2">
+      <c r="AG9" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>121</v>
@@ -2266,13 +2242,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2297,16 +2273,16 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2375,7 +2351,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -2478,7 +2454,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2583,7 +2559,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>114</v>
@@ -2626,7 +2602,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2688,7 +2664,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>123</v>
@@ -2714,16 +2690,16 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2749,13 +2725,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2773,7 +2749,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>83</v>
@@ -2785,7 +2761,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>121</v>
@@ -2793,13 +2769,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2824,16 +2800,16 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2902,7 +2878,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>106</v>
@@ -3005,7 +2981,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>108</v>
@@ -3110,7 +3086,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>114</v>
@@ -3153,7 +3129,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -3215,7 +3191,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>123</v>
@@ -3241,16 +3217,16 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3300,7 +3276,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>83</v>
@@ -3312,7 +3288,7 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>121</v>
@@ -3320,13 +3296,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3351,14 +3327,14 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3427,7 +3403,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>106</v>
@@ -3530,7 +3506,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>108</v>
@@ -3635,7 +3611,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>114</v>
@@ -3678,7 +3654,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3740,7 +3716,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>123</v>
@@ -3766,13 +3742,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3823,7 +3799,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>83</v>
@@ -3835,7 +3811,7 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>121</v>
@@ -3843,13 +3819,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3874,16 +3850,16 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3952,7 +3928,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>106</v>
@@ -4055,7 +4031,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>108</v>
@@ -4160,7 +4136,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>114</v>
@@ -4203,7 +4179,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -4265,7 +4241,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>123</v>
@@ -4291,16 +4267,16 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4350,7 +4326,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>83</v>
@@ -4362,7 +4338,7 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>121</v>
@@ -4370,13 +4346,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4401,14 +4377,14 @@
         <v>94</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4477,7 +4453,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>106</v>
@@ -4580,7 +4556,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>108</v>
@@ -4683,13 +4659,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
@@ -4714,14 +4690,14 @@
         <v>94</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -4790,10 +4766,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4893,10 +4869,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4998,10 +4974,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5041,7 +5017,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>77</v>
@@ -5103,10 +5079,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5129,13 +5105,13 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5186,7 +5162,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>83</v>
@@ -5198,7 +5174,7 @@
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>121</v>
@@ -5206,13 +5182,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
@@ -5237,14 +5213,14 @@
         <v>94</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5313,10 +5289,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5416,10 +5392,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5521,10 +5497,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5564,7 +5540,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -5626,10 +5602,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5652,13 +5628,13 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5685,13 +5661,13 @@
         <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>210</v>
+        <v>77</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>77</v>
@@ -5709,7 +5685,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>83</v>
@@ -5721,7 +5697,7 @@
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>121</v>
@@ -5729,7 +5705,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>114</v>
@@ -5772,7 +5748,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -5834,7 +5810,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>123</v>
@@ -5860,13 +5836,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -5917,7 +5893,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>83</v>
@@ -5929,7 +5905,7 @@
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>121</v>
@@ -5937,13 +5913,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -5968,14 +5944,14 @@
         <v>94</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6044,7 +6020,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>106</v>
@@ -6147,7 +6123,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>108</v>
@@ -6252,7 +6228,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>114</v>
@@ -6295,7 +6271,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6357,7 +6333,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>123</v>
@@ -6383,13 +6359,13 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6440,7 +6416,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>83</v>
@@ -6452,7 +6428,7 @@
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>121</v>
@@ -6460,13 +6436,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
@@ -6491,14 +6467,14 @@
         <v>94</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -6567,7 +6543,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>106</v>
@@ -6670,7 +6646,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>108</v>
@@ -6775,7 +6751,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>114</v>
@@ -6818,7 +6794,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -6880,7 +6856,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>123</v>
@@ -6906,13 +6882,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -6963,7 +6939,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>83</v>
@@ -6975,7 +6951,7 @@
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>121</v>
@@ -6983,13 +6959,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -7014,14 +6990,14 @@
         <v>94</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7090,7 +7066,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>106</v>
@@ -7193,7 +7169,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>108</v>
@@ -7298,7 +7274,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>114</v>
@@ -7341,7 +7317,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -7403,7 +7379,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>123</v>
@@ -7429,13 +7405,13 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7486,7 +7462,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>83</v>
@@ -7498,7 +7474,7 @@
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>121</v>
@@ -7506,13 +7482,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -7537,14 +7513,14 @@
         <v>94</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -7613,7 +7589,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>106</v>
@@ -7716,7 +7692,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>108</v>
@@ -7821,7 +7797,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>114</v>
@@ -7864,7 +7840,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -7926,7 +7902,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>123</v>
@@ -7952,13 +7928,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8009,7 +7985,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>83</v>
@@ -8021,7 +7997,7 @@
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>121</v>
@@ -8029,13 +8005,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -8060,14 +8036,14 @@
         <v>94</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -8136,7 +8112,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>106</v>
@@ -8239,7 +8215,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>108</v>
@@ -8344,7 +8320,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>114</v>
@@ -8387,7 +8363,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -8449,7 +8425,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>123</v>
@@ -8475,13 +8451,13 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -8532,7 +8508,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>83</v>
@@ -8544,7 +8520,7 @@
         <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>121</v>
@@ -8552,13 +8528,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
@@ -8583,14 +8559,14 @@
         <v>94</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -8659,7 +8635,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>106</v>
@@ -8762,7 +8738,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>108</v>
@@ -8867,7 +8843,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>114</v>
@@ -8910,7 +8886,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>77</v>
@@ -8972,7 +8948,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>123</v>
@@ -9001,10 +8977,10 @@
         <v>87</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9055,7 +9031,7 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>83</v>
@@ -9067,7 +9043,7 @@
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>121</v>
@@ -9075,13 +9051,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>77</v>
@@ -9106,14 +9082,14 @@
         <v>94</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -9182,7 +9158,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>106</v>
@@ -9285,7 +9261,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>108</v>
@@ -9390,7 +9366,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>114</v>
@@ -9433,7 +9409,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>77</v>
@@ -9495,7 +9471,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>123</v>
@@ -9524,10 +9500,10 @@
         <v>87</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -9578,7 +9554,7 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>83</v>
@@ -9590,7 +9566,7 @@
         <v>77</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>121</v>
@@ -9598,13 +9574,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>77</v>
@@ -9629,14 +9605,14 @@
         <v>94</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>77</v>
@@ -9705,7 +9681,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>106</v>
@@ -9808,7 +9784,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>108</v>
@@ -9913,7 +9889,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>114</v>
@@ -9956,7 +9932,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>77</v>
@@ -10018,7 +9994,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>123</v>
@@ -10044,13 +10020,13 @@
         <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -10101,7 +10077,7 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>83</v>
@@ -10113,7 +10089,7 @@
         <v>77</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>121</v>
@@ -10226,10 +10202,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -10252,13 +10228,13 @@
         <v>77</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -10309,7 +10285,7 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>83</v>
@@ -10321,7 +10297,7 @@
         <v>77</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>121</v>
